--- a/E-28 Documentation/E-28 BOM.xlsx
+++ b/E-28 Documentation/E-28 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremie\Documents\SVN\Design\Electronic Design\E-28 Voltmeter\Production\Manufacturing Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC741D9-51C5-4083-98B5-C9F58DE99AA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD618881-CF3F-4B77-9437-582428CBE5CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27CBD8A3-62A9-4F36-A53F-CC7B60137524}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{27CBD8A3-62A9-4F36-A53F-CC7B60137524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Description</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>https://www.digikey.ca/product-detail/en/micro-commercial-co/1N4448W-TP/1N4448WTPMSCT-ND/789337</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Multimeter-Probe-DMM-Test-Probes-Multimetro_62021861221.html?spm=a2700.7724857.normalList.21.2bf53916Rh4H24</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/jst-sales-america-inc/S3B-PH-SM4-TB-LF-SN/455-1750-1-ND/926847</t>
+  </si>
+  <si>
+    <t>D2275</t>
   </si>
 </sst>
 </file>
@@ -271,7 +280,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,10 +337,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -655,7 +667,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,11 +700,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -850,17 +862,21 @@
       <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
@@ -884,10 +900,10 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -897,16 +913,18 @@
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="11"/>
@@ -1084,8 +1102,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{448C33B7-2F21-44B2-85D6-DD3B7DD72969}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{AE4DA00F-6BAB-4899-8F12-BEC2437A3D12}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{2337B771-8B66-4F3B-A4F7-0D26A971F1D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>